--- a/Restaurants.xlsx
+++ b/Restaurants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91782CE-F179-164E-8558-3C8CB8FB2727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16A671B-B4ED-8946-B821-79E7678C567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="5320" windowWidth="41540" windowHeight="28300" xr2:uid="{CB0C54E7-8B5D-9940-9BBA-6C9C392A3DE8}"/>
+    <workbookView xWindow="20260" yWindow="560" windowWidth="23460" windowHeight="28300" xr2:uid="{CB0C54E7-8B5D-9940-9BBA-6C9C392A3DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="197">
   <si>
     <t>MCD</t>
   </si>
@@ -609,12 +609,6 @@
     <t>CA</t>
   </si>
   <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>Franchised mcdonalds</t>
-  </si>
-  <si>
     <t>SSS</t>
   </si>
   <si>
@@ -625,6 +619,15 @@
   </si>
   <si>
     <t xml:space="preserve">Last </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latest </t>
+  </si>
+  <si>
+    <t>Revised earnings downward</t>
+  </si>
+  <si>
+    <t>Prior Q</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -789,6 +792,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -796,7 +840,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -809,11 +853,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -831,20 +871,53 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1182,78 +1255,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED3BEF-AB7E-4941-AB4B-F6D83EF65880}">
-  <dimension ref="A1:AD55"/>
+  <dimension ref="A1:AE55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.33203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="3.1640625" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="5.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="6.33203125" style="2"/>
+    <col min="4" max="4" width="5.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="5.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="6.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>104</v>
       </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="M2" s="24" t="s">
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="24"/>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="24" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="24" t="s">
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26"/>
-      <c r="Z2" s="14" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AC2" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="25" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" s="4" customFormat="1">
+      <c r="AE2" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="4" customFormat="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>41</v>
@@ -1279,2286 +1392,2349 @@
       <c r="I3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="33" t="s">
         <v>106</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="L3" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="9">
         <v>2021</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>2022</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>2023</v>
       </c>
-      <c r="P3" s="11">
+      <c r="Q3" s="11">
         <v>2024</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="R3" s="9">
         <v>2021</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="10">
         <v>2022</v>
       </c>
-      <c r="S3" s="10">
+      <c r="T3" s="10">
         <v>2023</v>
       </c>
-      <c r="T3" s="11">
+      <c r="U3" s="11">
         <v>2024</v>
       </c>
-      <c r="U3" s="9">
+      <c r="V3" s="9">
         <v>2021</v>
       </c>
-      <c r="V3" s="10">
+      <c r="W3" s="10">
         <v>2022</v>
       </c>
-      <c r="W3" s="10">
+      <c r="X3" s="10">
         <v>2023</v>
       </c>
-      <c r="X3" s="11">
+      <c r="Y3" s="11">
         <v>2024</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="11">
+        <v>2025</v>
+      </c>
+      <c r="AA3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AD3" s="25"/>
+    </row>
+    <row r="4" spans="1:31" s="4" customFormat="1">
+      <c r="A4"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <v>294</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="26">
+        <v>258</v>
+      </c>
+      <c r="E4" s="26">
         <v>721</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="26">
         <f>+D4*E4</f>
-        <v>211974</v>
-      </c>
-      <c r="G4" s="2">
+        <v>186018</v>
+      </c>
+      <c r="G4" s="26">
         <v>838</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="26">
         <v>37275</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="26">
         <f>+F4-G4+H4</f>
-        <v>248411</v>
-      </c>
-      <c r="J4" s="6">
+        <v>222455</v>
+      </c>
+      <c r="J4" s="34">
         <v>0.06</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="28">
         <v>42018</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="29">
+        <v>0.09</v>
+      </c>
+      <c r="M4" s="29">
         <v>1.9E-2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="26">
         <v>23222.899999999998</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="26">
         <v>23182.6</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="26">
         <v>25493.7</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Q4" s="26">
         <v>26901</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="26">
         <v>7874.7999999999993</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="26">
         <v>6456.4000000000015</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="26">
         <v>8468.7999999999993</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="26">
         <v>9718.753606319191</v>
       </c>
-      <c r="U4" s="12">
-        <f>+IFERROR($I4/Q4,0)</f>
-        <v>31.545055112510799</v>
-      </c>
-      <c r="V4" s="12">
+      <c r="V4" s="30">
         <f>+IFERROR($I4/R4,0)</f>
-        <v>38.475156433926017</v>
-      </c>
-      <c r="W4" s="12">
+        <v>28.248971402448319</v>
+      </c>
+      <c r="W4" s="30">
         <f>+IFERROR($I4/S4,0)</f>
-        <v>29.332491025883243</v>
-      </c>
-      <c r="X4" s="12">
-        <f>+IFERROR($I4/T4,0)</f>
-        <v>25.559964792036883</v>
-      </c>
-      <c r="Z4" s="2">
-        <f t="shared" ref="Z4:Z14" si="0">+(F4*1000000)/K4</f>
-        <v>5044837.9266028842</v>
-      </c>
-      <c r="AA4" s="2">
+        <v>34.454959420110271</v>
+      </c>
+      <c r="X4" s="30">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="30">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="26">
+        <f>+(F4*1000000)/K4</f>
+        <v>4427102.6702841641</v>
+      </c>
+      <c r="AB4" s="26">
         <v>285</v>
       </c>
-      <c r="AB4" s="6">
-        <f>AA4/D4-1</f>
-        <v>-3.0612244897959218E-2</v>
-      </c>
-      <c r="AC4" s="30">
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AC4" s="27">
+        <f>AB4/D4-1</f>
+        <v>0.10465116279069764</v>
+      </c>
+      <c r="AD4" s="31">
+        <v>45438</v>
+      </c>
+      <c r="AE4" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>87.13</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1137</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" ref="F5:F51" si="1">+D5*E5</f>
-        <v>99066.81</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4640</v>
-      </c>
-      <c r="H5" s="2">
-        <v>13581</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I51" si="2">+F5-G5+H5</f>
-        <v>108007.81</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="K5" s="7">
-        <v>38038</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="D5" s="26">
+        <v>78.87</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1133</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" ref="F5:F51" si="0">+D5*E5</f>
+        <v>89359.71</v>
+      </c>
+      <c r="G5" s="26">
+        <v>3127</v>
+      </c>
+      <c r="H5" s="26">
+        <v>15590</v>
+      </c>
+      <c r="I5" s="26">
+        <f t="shared" ref="I5:I51" si="1">+F5-G5+H5</f>
+        <v>101822.71</v>
+      </c>
+      <c r="J5" s="34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K5" s="28">
+        <v>38951</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="29">
+        <v>-0.04</v>
+      </c>
+      <c r="N5" s="26">
         <v>29060.600000000002</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="26">
         <v>32250.299999999996</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="26">
         <v>35975.599999999999</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="26">
         <v>40418.586600000002</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="26">
         <v>3505.4000000000005</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="26">
         <v>3327.7999999999984</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="26">
         <v>4146.2999999999975</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="26">
         <v>5820.2439813653491</v>
       </c>
-      <c r="U5" s="12">
-        <f t="shared" ref="U5:U51" si="3">+IFERROR($I5/Q5,0)</f>
-        <v>30.811836024419463</v>
-      </c>
-      <c r="V5" s="12">
-        <f t="shared" ref="V5:V51" si="4">+IFERROR($I5/R5,0)</f>
-        <v>32.456220325740745</v>
-      </c>
-      <c r="W5" s="12">
-        <f t="shared" ref="W5:W51" si="5">+IFERROR($I5/S5,0)</f>
-        <v>26.049202903793759</v>
-      </c>
-      <c r="X5" s="12">
-        <f t="shared" ref="X5:X51" si="6">+IFERROR($I5/T5,0)</f>
-        <v>18.557265012567886</v>
-      </c>
-      <c r="Z5" s="2">
-        <f t="shared" si="0"/>
-        <v>2604416.8988905833</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>95</v>
-      </c>
-      <c r="AB5" s="6">
-        <f t="shared" ref="AB5:AB14" si="7">AA5/D5-1</f>
-        <v>9.0324802019970285E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="V5" s="30">
+        <f t="shared" ref="V5:V51" si="2">+IFERROR($I5/R5,0)</f>
+        <v>29.047386888800133</v>
+      </c>
+      <c r="W5" s="30">
+        <f t="shared" ref="W5:W51" si="3">+IFERROR($I5/S5,0)</f>
+        <v>30.597605024340421</v>
+      </c>
+      <c r="X5" s="30">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="26">
+        <f t="shared" ref="AA4:AA14" si="4">+(F5*1000000)/K5</f>
+        <v>2294157.0177915841</v>
+      </c>
+      <c r="AB5" s="26">
+        <v>77</v>
+      </c>
+      <c r="AC5" s="27">
+        <f t="shared" ref="AC5:AC14" si="5">AB5/D5-1</f>
+        <v>-2.3709902370990243E-2</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>45438</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="26">
         <v>2898</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="26">
         <f>27421169/1000000</f>
         <v>27.421168999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="26">
+        <f t="shared" si="0"/>
+        <v>79466.547762000002</v>
+      </c>
+      <c r="G6" s="26">
+        <v>560.60900000000004</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
         <f t="shared" si="1"/>
-        <v>79466.547762000002</v>
-      </c>
-      <c r="G6" s="2">
-        <v>560.60900000000004</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="2"/>
         <v>78905.938762000005</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="34">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="28">
         <v>3437</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="26">
         <f>7547061/1000</f>
         <v>7547.0609999999997</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="26">
         <f>8634652/1000</f>
         <v>8634.652</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="26">
         <f>9871649/1000</f>
         <v>9871.6489999999994</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="26">
         <f>11377298.065691/1000</f>
         <v>11377.298065691</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="26">
         <f>672275/1000</f>
         <v>672.27499999999998</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="26">
         <f>920240/1000</f>
         <v>920.24</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="26">
         <f>1267107/1000</f>
         <v>1267.107</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="26">
         <f>2341699.65465214/1000</f>
         <v>2341.69965465214</v>
       </c>
-      <c r="U6" s="12">
+      <c r="V6" s="30">
+        <f t="shared" si="2"/>
+        <v>117.37152022907294</v>
+      </c>
+      <c r="W6" s="30">
         <f t="shared" si="3"/>
-        <v>117.37152022907294</v>
-      </c>
-      <c r="V6" s="12">
+        <v>85.744956491784762</v>
+      </c>
+      <c r="X6" s="30">
+        <f t="shared" ref="X6:X51" si="6">+IFERROR($I6/T6,0)</f>
+        <v>62.272514288059341</v>
+      </c>
+      <c r="Y6" s="30">
+        <f t="shared" ref="Y6:Y51" si="7">+IFERROR($I6/U6,0)</f>
+        <v>33.696011615000003</v>
+      </c>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="26">
         <f t="shared" si="4"/>
-        <v>85.744956491784762</v>
-      </c>
-      <c r="W6" s="12">
+        <v>23120904.207739308</v>
+      </c>
+      <c r="AB6" s="26">
+        <v>2556</v>
+      </c>
+      <c r="AC6" s="27">
         <f t="shared" si="5"/>
-        <v>62.272514288059341</v>
-      </c>
-      <c r="X6" s="12">
-        <f t="shared" si="6"/>
-        <v>33.696011615000003</v>
-      </c>
-      <c r="Z6" s="2">
-        <f t="shared" si="0"/>
-        <v>23120904.207739308</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>2556</v>
-      </c>
-      <c r="AB6" s="6">
-        <f t="shared" si="7"/>
         <v>-0.11801242236024845</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="26">
         <v>136</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="26">
         <v>282</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="26">
+        <f t="shared" si="0"/>
+        <v>38352</v>
+      </c>
+      <c r="G7" s="26">
+        <v>410</v>
+      </c>
+      <c r="H7" s="26">
+        <v>11589</v>
+      </c>
+      <c r="I7" s="26">
         <f t="shared" si="1"/>
-        <v>38352</v>
-      </c>
-      <c r="G7" s="2">
-        <v>410</v>
-      </c>
-      <c r="H7" s="2">
-        <v>11589</v>
-      </c>
-      <c r="I7" s="2">
+        <v>49531</v>
+      </c>
+      <c r="J7" s="34">
+        <v>0.06</v>
+      </c>
+      <c r="K7" s="28">
+        <v>58708</v>
+      </c>
+      <c r="N7" s="26">
+        <v>6584</v>
+      </c>
+      <c r="O7" s="26">
+        <v>6842</v>
+      </c>
+      <c r="P7" s="26">
+        <v>7076</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>7736.8555413088652</v>
+      </c>
+      <c r="R7" s="26">
+        <v>1575</v>
+      </c>
+      <c r="S7" s="26">
+        <v>1325</v>
+      </c>
+      <c r="T7" s="26">
+        <v>1597</v>
+      </c>
+      <c r="U7" s="26">
+        <v>1750.0646590794397</v>
+      </c>
+      <c r="V7" s="30">
         <f t="shared" si="2"/>
-        <v>49531</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="K7" s="7">
-        <v>58708</v>
-      </c>
-      <c r="M7" s="2">
-        <v>6584</v>
-      </c>
-      <c r="N7" s="2">
-        <v>6842</v>
-      </c>
-      <c r="O7" s="2">
-        <v>7076</v>
-      </c>
-      <c r="P7" s="2">
-        <v>7736.8555413088652</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1575</v>
-      </c>
-      <c r="R7" s="2">
-        <v>1325</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1597</v>
-      </c>
-      <c r="T7" s="2">
-        <v>1750.0646590794397</v>
-      </c>
-      <c r="U7" s="12">
+        <v>31.448253968253969</v>
+      </c>
+      <c r="W7" s="30">
         <f t="shared" si="3"/>
-        <v>31.448253968253969</v>
-      </c>
-      <c r="V7" s="12">
+        <v>37.381886792452832</v>
+      </c>
+      <c r="X7" s="30">
+        <f t="shared" si="6"/>
+        <v>31.015028177833436</v>
+      </c>
+      <c r="Y7" s="30">
+        <f t="shared" si="7"/>
+        <v>28.302382853702131</v>
+      </c>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="26">
         <f t="shared" si="4"/>
-        <v>37.381886792452832</v>
-      </c>
-      <c r="W7" s="12">
+        <v>653267.01642024936</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>129</v>
+      </c>
+      <c r="AC7" s="27">
         <f t="shared" si="5"/>
-        <v>31.015028177833436</v>
-      </c>
-      <c r="X7" s="12">
-        <f t="shared" si="6"/>
-        <v>28.302382853702131</v>
-      </c>
-      <c r="Z7" s="2">
-        <f t="shared" si="0"/>
-        <v>653267.01642024936</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>129</v>
-      </c>
-      <c r="AB7" s="6">
-        <f t="shared" si="7"/>
         <v>-5.1470588235294157E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="26">
         <v>157</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="26">
         <v>119</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="26">
+        <f t="shared" si="0"/>
+        <v>18683</v>
+      </c>
+      <c r="G8" s="26">
+        <v>196</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1718</v>
+      </c>
+      <c r="I8" s="26">
         <f t="shared" si="1"/>
-        <v>18683</v>
-      </c>
-      <c r="G8" s="2">
-        <v>196</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1718</v>
-      </c>
-      <c r="I8" s="2">
+        <v>20205</v>
+      </c>
+      <c r="J8" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="K8" s="28">
+        <v>2022</v>
+      </c>
+      <c r="N8" s="26">
+        <v>7196.1</v>
+      </c>
+      <c r="O8" s="26">
+        <v>9630</v>
+      </c>
+      <c r="P8" s="26">
+        <v>10487.8</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>11403.88474137931</v>
+      </c>
+      <c r="R8" s="26">
+        <v>635.900000000001</v>
+      </c>
+      <c r="S8" s="26">
+        <v>949.6000000000007</v>
+      </c>
+      <c r="T8" s="26">
+        <v>971.29999999999893</v>
+      </c>
+      <c r="U8" s="26">
+        <v>1169.6667859765953</v>
+      </c>
+      <c r="V8" s="30">
         <f t="shared" si="2"/>
-        <v>20205</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="K8" s="7">
-        <v>2022</v>
-      </c>
-      <c r="M8" s="2">
-        <v>7196.1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>9630</v>
-      </c>
-      <c r="O8" s="2">
-        <v>10487.8</v>
-      </c>
-      <c r="P8" s="2">
-        <v>11403.88474137931</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>635.900000000001</v>
-      </c>
-      <c r="R8" s="2">
-        <v>949.6000000000007</v>
-      </c>
-      <c r="S8" s="2">
-        <v>971.29999999999893</v>
-      </c>
-      <c r="T8" s="2">
-        <v>1169.6667859765953</v>
-      </c>
-      <c r="U8" s="12">
+        <v>31.773863815065212</v>
+      </c>
+      <c r="W8" s="30">
         <f t="shared" si="3"/>
-        <v>31.773863815065212</v>
-      </c>
-      <c r="V8" s="12">
+        <v>21.277379949452385</v>
+      </c>
+      <c r="X8" s="30">
+        <f t="shared" si="6"/>
+        <v>20.802017914135718</v>
+      </c>
+      <c r="Y8" s="30">
+        <f t="shared" si="7"/>
+        <v>17.274150418086929</v>
+      </c>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="26">
         <f t="shared" si="4"/>
-        <v>21.277379949452385</v>
-      </c>
-      <c r="W8" s="12">
+        <v>9239861.523244312</v>
+      </c>
+      <c r="AB8" s="26">
+        <v>166</v>
+      </c>
+      <c r="AC8" s="27">
         <f t="shared" si="5"/>
-        <v>20.802017914135718</v>
-      </c>
-      <c r="X8" s="12">
-        <f t="shared" si="6"/>
-        <v>17.274150418086929</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="shared" si="0"/>
-        <v>9239861.523244312</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>166</v>
-      </c>
-      <c r="AB8" s="6">
-        <f t="shared" si="7"/>
         <v>5.7324840764331197E-2</v>
       </c>
-      <c r="AC8" s="30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+    </row>
+    <row r="9" spans="1:31">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="26">
         <v>498</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="26">
         <v>35</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="26">
+        <f t="shared" si="0"/>
+        <v>17430</v>
+      </c>
+      <c r="G9" s="26">
+        <v>315</v>
+      </c>
+      <c r="H9" s="26">
+        <v>4990</v>
+      </c>
+      <c r="I9" s="26">
         <f t="shared" si="1"/>
-        <v>17430</v>
-      </c>
-      <c r="G9" s="2">
-        <v>315</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4990</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="2"/>
         <v>22105</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="34">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="28">
         <v>20591</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="26">
         <f>4357373/1000</f>
         <v>4357.3729999999996</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="26">
         <f>4537158/1000</f>
         <v>4537.1580000000004</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="26">
         <f>4479358/1000</f>
         <v>4479.3580000000002</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="26">
         <f>4811532.2747647/1000</f>
         <v>4811.5322747646997</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="26">
         <f>510467/1000</f>
         <v>510.46699999999998</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S9" s="26">
         <f>452263/1000</f>
         <v>452.26299999999998</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="26">
         <f>519118/1000</f>
         <v>519.11800000000005</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="26">
         <f>557614.062419504/1000</f>
         <v>557.61406241950408</v>
       </c>
-      <c r="U9" s="12">
+      <c r="V9" s="30">
+        <f t="shared" si="2"/>
+        <v>43.303484848188035</v>
+      </c>
+      <c r="W9" s="30">
         <f t="shared" si="3"/>
-        <v>43.303484848188035</v>
-      </c>
-      <c r="V9" s="12">
+        <v>48.876428096041465</v>
+      </c>
+      <c r="X9" s="30">
+        <f t="shared" si="6"/>
+        <v>42.5818407375587</v>
+      </c>
+      <c r="Y9" s="30">
+        <f t="shared" si="7"/>
+        <v>39.642113586744465</v>
+      </c>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="26">
         <f t="shared" si="4"/>
-        <v>48.876428096041465</v>
-      </c>
-      <c r="W9" s="12">
+        <v>846486.32897867996</v>
+      </c>
+      <c r="AB9" s="26">
+        <v>367</v>
+      </c>
+      <c r="AC9" s="27">
         <f t="shared" si="5"/>
-        <v>42.5818407375587</v>
-      </c>
-      <c r="X9" s="12">
-        <f t="shared" si="6"/>
-        <v>39.642113586744465</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="0"/>
-        <v>846486.32897867996</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>367</v>
-      </c>
-      <c r="AB9" s="6">
-        <f t="shared" si="7"/>
         <v>-0.26305220883534142</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="26">
         <v>354</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="26">
         <v>29</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="26">
+        <f t="shared" si="0"/>
+        <v>10266</v>
+      </c>
+      <c r="G10" s="26">
+        <v>102</v>
+      </c>
+      <c r="H10" s="26">
+        <v>712</v>
+      </c>
+      <c r="I10" s="26">
         <f t="shared" si="1"/>
-        <v>10266</v>
-      </c>
-      <c r="G10" s="2">
-        <v>102</v>
-      </c>
-      <c r="H10" s="2">
-        <v>712</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="2"/>
         <v>10876</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="34">
         <v>0.06</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="28">
         <v>2214</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="26">
         <f>282502/1000</f>
         <v>282.50200000000001</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="26">
         <f>357521/1000</f>
         <v>357.52100000000002</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="26">
         <f>460055/1000</f>
         <v>460.05500000000001</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="26">
         <f>560918.006775068/1000</f>
         <v>560.91800677506797</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="26">
         <f>39161/1000</f>
         <v>39.161000000000001</v>
       </c>
-      <c r="R10" s="2">
+      <c r="S10" s="26">
         <f>54925/1000</f>
         <v>54.924999999999997</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="26">
         <f>70270/1000</f>
         <v>70.27</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="26">
         <f>103517.686427313/1000</f>
         <v>103.51768642731301</v>
       </c>
-      <c r="U10" s="12">
+      <c r="V10" s="30">
+        <f t="shared" si="2"/>
+        <v>277.72528791399606</v>
+      </c>
+      <c r="W10" s="30">
         <f t="shared" si="3"/>
-        <v>277.72528791399606</v>
-      </c>
-      <c r="V10" s="12">
+        <v>198.01547564861175</v>
+      </c>
+      <c r="X10" s="30">
+        <f t="shared" si="6"/>
+        <v>154.77444144015939</v>
+      </c>
+      <c r="Y10" s="30">
+        <f t="shared" si="7"/>
+        <v>105.06417188561105</v>
+      </c>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="26">
         <f t="shared" si="4"/>
-        <v>198.01547564861175</v>
-      </c>
-      <c r="W10" s="12">
+        <v>4636856.3685636856</v>
+      </c>
+      <c r="AB10" s="26">
+        <v>246</v>
+      </c>
+      <c r="AC10" s="27">
         <f t="shared" si="5"/>
-        <v>154.77444144015939</v>
-      </c>
-      <c r="X10" s="12">
-        <f t="shared" si="6"/>
-        <v>105.06417188561105</v>
-      </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="0"/>
-        <v>4636856.3685636856</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>246</v>
-      </c>
-      <c r="AB10" s="6">
-        <f t="shared" si="7"/>
         <v>-0.30508474576271183</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="26">
         <v>149</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="26">
         <v>67</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="26">
+        <f t="shared" si="0"/>
+        <v>9983</v>
+      </c>
+      <c r="G11" s="26">
+        <v>104</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
         <f t="shared" si="1"/>
-        <v>9983</v>
-      </c>
-      <c r="G11" s="2">
-        <v>104</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="2"/>
         <v>9879</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="34">
         <v>0.08</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="28">
         <v>741</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="26">
         <f>3463946/1000</f>
         <v>3463.9459999999999</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="26">
         <f>4014919/1000</f>
         <v>4014.9189999999999</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="26">
         <f>4631672/1000</f>
         <v>4631.6719999999996</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="26">
         <f>5500501.16059379/1000</f>
         <v>5500.5011605937898</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="26">
         <f>246028/1000</f>
         <v>246.02799999999999</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S11" s="26">
         <f>271418/1000</f>
         <v>271.41800000000001</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="26">
         <f>299183/1000</f>
         <v>299.18299999999999</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="26">
         <f>752934.317134435/1000</f>
         <v>752.9343171344351</v>
       </c>
-      <c r="U11" s="12">
+      <c r="V11" s="30">
+        <f t="shared" si="2"/>
+        <v>40.153966215227534</v>
+      </c>
+      <c r="W11" s="30">
         <f t="shared" si="3"/>
-        <v>40.153966215227534</v>
-      </c>
-      <c r="V11" s="12">
+        <v>36.397733385405537</v>
+      </c>
+      <c r="X11" s="30">
+        <f t="shared" si="6"/>
+        <v>33.019924260402497</v>
+      </c>
+      <c r="Y11" s="30">
+        <f t="shared" si="7"/>
+        <v>13.120666405003455</v>
+      </c>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="26">
         <f t="shared" si="4"/>
-        <v>36.397733385405537</v>
-      </c>
-      <c r="W11" s="12">
+        <v>13472334.682860998</v>
+      </c>
+      <c r="AB11" s="26">
+        <v>148</v>
+      </c>
+      <c r="AC11" s="27">
         <f t="shared" si="5"/>
-        <v>33.019924260402497</v>
-      </c>
-      <c r="X11" s="12">
-        <f t="shared" si="6"/>
-        <v>13.120666405003455</v>
-      </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="0"/>
-        <v>13472334.682860998</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>148</v>
-      </c>
-      <c r="AB11" s="6">
-        <f t="shared" si="7"/>
         <v>-6.7114093959731447E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="26">
         <v>55</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="26">
         <v>114</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="26">
+        <f t="shared" si="0"/>
+        <v>6270</v>
+      </c>
+      <c r="G12" s="26">
+        <v>340.399</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
         <f t="shared" si="1"/>
-        <v>6270</v>
-      </c>
-      <c r="G12" s="2">
-        <v>340.399</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="2"/>
         <v>5929.6009999999997</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="34">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="28">
         <v>309</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="26">
         <f>500072/1000</f>
         <v>500.072</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="26">
         <f>564119/1000</f>
         <v>564.11900000000003</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="26">
         <f>728700/1000</f>
         <v>728.7</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="26">
         <f>872848/1000</f>
         <v>872.84799999999996</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="26">
         <f>+-20.01</f>
         <v>-20.010000000000002</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="26">
         <f>+-33311/1000</f>
         <v>-33.311</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="26">
         <v>24.259</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="26">
         <f>29057.801059421/1000</f>
         <v>29.057801059420999</v>
       </c>
-      <c r="U12" s="12">
+      <c r="V12" s="30">
+        <f t="shared" si="2"/>
+        <v>-296.33188405797097</v>
+      </c>
+      <c r="W12" s="30">
         <f t="shared" si="3"/>
-        <v>-296.33188405797097</v>
-      </c>
-      <c r="V12" s="12">
+        <v>-178.00729488757466</v>
+      </c>
+      <c r="X12" s="30">
+        <f t="shared" si="6"/>
+        <v>244.4289129807494</v>
+      </c>
+      <c r="Y12" s="30">
+        <f>+IFERROR($I12/U12,0)</f>
+        <v>204.06227532064162</v>
+      </c>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="26">
         <f t="shared" si="4"/>
-        <v>-178.00729488757466</v>
-      </c>
-      <c r="W12" s="12">
+        <v>20291262.135922331</v>
+      </c>
+      <c r="AB12" s="26">
+        <v>33</v>
+      </c>
+      <c r="AC12" s="27">
         <f t="shared" si="5"/>
-        <v>244.4289129807494</v>
-      </c>
-      <c r="X12" s="12">
-        <f>+IFERROR($I12/T12,0)</f>
-        <v>204.06227532064162</v>
-      </c>
-      <c r="Z12" s="2">
-        <f t="shared" si="0"/>
-        <v>20291262.135922331</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>33</v>
-      </c>
-      <c r="AB12" s="6">
-        <f t="shared" si="7"/>
         <v>-0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="26">
         <v>19</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="26">
         <v>205</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="26">
+        <f t="shared" si="0"/>
+        <v>3895</v>
+      </c>
+      <c r="G13" s="26">
+        <v>552</v>
+      </c>
+      <c r="H13" s="26">
+        <v>2762</v>
+      </c>
+      <c r="I13" s="26">
         <f t="shared" si="1"/>
-        <v>3895</v>
-      </c>
-      <c r="G13" s="2">
-        <v>552</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2762</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="2"/>
         <v>6105</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="34">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="28">
         <v>7240</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="26">
         <f>2181578/1000</f>
         <v>2181.578</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="26">
         <f>2095505/1000</f>
         <v>2095.5050000000001</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="26">
         <f>2181578/1000</f>
         <v>2181.578</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="26">
         <f>2301564.79/1000</f>
         <v>2301.5647899999999</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="26">
         <f>480143/1000</f>
         <v>480.14299999999997</v>
       </c>
-      <c r="R13" s="2">
+      <c r="S13" s="26">
         <f>180103/1000</f>
         <v>180.10300000000001</v>
       </c>
-      <c r="S13" s="2">
+      <c r="T13" s="26">
         <f>224656/1000</f>
         <v>224.65600000000001</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U13" s="26">
         <f>245205.312826181/1000</f>
         <v>245.205312826181</v>
       </c>
-      <c r="U13" s="12">
-        <f>+IFERROR($I13/Q13,0)</f>
+      <c r="V13" s="30">
+        <f>+IFERROR($I13/R13,0)</f>
         <v>12.714962000903897</v>
       </c>
-      <c r="V13" s="12">
+      <c r="W13" s="30">
+        <f t="shared" si="3"/>
+        <v>33.897269895559759</v>
+      </c>
+      <c r="X13" s="30">
+        <f t="shared" si="6"/>
+        <v>27.174880706502385</v>
+      </c>
+      <c r="Y13" s="30">
+        <f t="shared" si="7"/>
+        <v>24.897502952261313</v>
+      </c>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="26">
         <f t="shared" si="4"/>
-        <v>33.897269895559759</v>
-      </c>
-      <c r="W13" s="12">
+        <v>537983.42541436467</v>
+      </c>
+      <c r="AB13" s="26">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="27">
         <f t="shared" si="5"/>
-        <v>27.174880706502385</v>
-      </c>
-      <c r="X13" s="12">
-        <f t="shared" si="6"/>
-        <v>24.897502952261313</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="0"/>
-        <v>537983.42541436467</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>16</v>
-      </c>
-      <c r="AB13" s="6">
-        <f t="shared" si="7"/>
         <v>-0.15789473684210531</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="26">
         <v>97.2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="26">
         <v>42</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="26">
+        <f t="shared" si="0"/>
+        <v>4082.4</v>
+      </c>
+      <c r="G14" s="26">
+        <v>293</v>
+      </c>
+      <c r="H14" s="26">
+        <v>246</v>
+      </c>
+      <c r="I14" s="26">
         <f t="shared" si="1"/>
-        <v>4082.4</v>
-      </c>
-      <c r="G14" s="2">
-        <v>293</v>
-      </c>
-      <c r="H14" s="2">
-        <v>246</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="2"/>
         <v>4035.4</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="34">
         <v>0.08</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="28">
         <v>518</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="26">
         <f>739893/1000</f>
         <v>739.89300000000003</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="26">
         <f>900486/1000</f>
         <v>900.48599999999999</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="26">
         <f>1087533/1000</f>
         <v>1087.5329999999999</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="26">
         <f>1249625.46374934/1000</f>
         <v>1249.62546374934</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="26">
         <f>+-7.023</f>
         <v>-7.0229999999999997</v>
       </c>
-      <c r="R14" s="2">
+      <c r="S14" s="26">
         <f>86823/1000</f>
         <v>86.822999999999993</v>
       </c>
-      <c r="S14" s="2">
+      <c r="T14" s="26">
         <v>22.814</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="26">
         <f>361740.940403918/1000</f>
         <v>361.74094040391799</v>
       </c>
-      <c r="U14" s="12">
-        <f>+IFERROR($I14/Q14,0)</f>
+      <c r="V14" s="30">
+        <f>+IFERROR($I14/R14,0)</f>
         <v>-574.59775024918133</v>
       </c>
-      <c r="V14" s="12">
-        <f>+IFERROR($I14/R14,0)</f>
+      <c r="W14" s="30">
+        <f>+IFERROR($I14/S14,0)</f>
         <v>46.478467687133602</v>
       </c>
-      <c r="W14" s="12">
-        <f>+IFERROR($I14/S14,0)</f>
+      <c r="X14" s="30">
+        <f>+IFERROR($I14/T14,0)</f>
         <v>176.88261593758219</v>
       </c>
-      <c r="X14" s="12">
-        <f>+IFERROR($I14/T14,0)</f>
+      <c r="Y14" s="30">
+        <f>+IFERROR($I14/U14,0)</f>
         <v>11.155497067857716</v>
       </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="0"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="26">
+        <f t="shared" si="4"/>
         <v>7881081.0810810812</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AB14" s="26">
         <v>95</v>
       </c>
-      <c r="AB14" s="6">
-        <f t="shared" si="7"/>
+      <c r="AC14" s="27">
+        <f t="shared" si="5"/>
         <v>-2.2633744855967142E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="O15" s="26">
+        <v>0</v>
+      </c>
+      <c r="V15" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="12">
+      <c r="W15" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V15" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="12">
+      <c r="X15" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="Y15" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="30"/>
+    </row>
+    <row r="16" spans="1:31">
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="V16" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U16" s="12">
+      <c r="W16" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V16" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="12">
+      <c r="X16" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:24">
+      <c r="Y16" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="30"/>
+    </row>
+    <row r="17" spans="2:26">
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="2">
+      <c r="V17" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U17" s="12">
+      <c r="W17" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V17" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="12">
+      <c r="X17" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:24">
+      <c r="Y17" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="30"/>
+    </row>
+    <row r="18" spans="2:26">
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="V18" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" s="12">
+      <c r="W18" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V18" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="12">
+      <c r="X18" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:24">
+      <c r="Y18" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="30"/>
+    </row>
+    <row r="19" spans="2:26">
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="V19" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U19" s="12">
+      <c r="W19" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V19" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="12">
+      <c r="X19" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:24">
+      <c r="Y19" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="30"/>
+    </row>
+    <row r="20" spans="2:26">
       <c r="B20" t="s">
         <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="2">
+      <c r="V20" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U20" s="12">
+      <c r="W20" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V20" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="12">
+      <c r="X20" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:24">
+      <c r="Y20" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="30"/>
+    </row>
+    <row r="21" spans="2:26">
       <c r="B21" t="s">
         <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="2">
+      <c r="V21" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U21" s="12">
+      <c r="W21" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V21" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="12">
+      <c r="X21" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:24">
+      <c r="Y21" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="30"/>
+    </row>
+    <row r="22" spans="2:26">
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="V22" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22" s="12">
+      <c r="W22" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V22" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="12">
+      <c r="X22" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:24">
+      <c r="Y22" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="30"/>
+    </row>
+    <row r="23" spans="2:26">
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="V23" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U23" s="12">
+      <c r="W23" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V23" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="12">
+      <c r="X23" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:24">
+      <c r="Y23" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="30"/>
+    </row>
+    <row r="24" spans="2:26">
       <c r="B24" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="V24" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" s="12">
+      <c r="W24" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V24" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="12">
+      <c r="X24" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:24">
+      <c r="Y24" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="30"/>
+    </row>
+    <row r="25" spans="2:26">
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="26">
         <v>12</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="26">
         <v>112</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="26">
+        <f t="shared" si="0"/>
+        <v>1344</v>
+      </c>
+      <c r="G25" s="26">
+        <v>275</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="26">
         <f t="shared" si="1"/>
-        <v>1344</v>
-      </c>
-      <c r="G25" s="2">
-        <v>275</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
+        <v>1069</v>
+      </c>
+      <c r="V25" s="30">
         <f t="shared" si="2"/>
-        <v>1069</v>
-      </c>
-      <c r="U25" s="12">
+        <v>0</v>
+      </c>
+      <c r="W25" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V25" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="12">
+      <c r="X25" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:24">
+      <c r="Y25" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="30"/>
+    </row>
+    <row r="26" spans="2:26">
       <c r="B26" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="2">
+      <c r="V26" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26" s="12">
+      <c r="W26" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V26" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="12">
+      <c r="X26" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:24">
+      <c r="Y26" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="30"/>
+    </row>
+    <row r="27" spans="2:26">
       <c r="B27" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="2">
+      <c r="V27" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27" s="12">
+      <c r="W27" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V27" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="12">
+      <c r="X27" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:24">
+      <c r="Y27" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="30"/>
+    </row>
+    <row r="28" spans="2:26">
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="2">
+      <c r="V28" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28" s="12">
+      <c r="W28" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V28" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="12">
+      <c r="X28" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:24">
+      <c r="Y28" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="30"/>
+    </row>
+    <row r="29" spans="2:26">
       <c r="B29" t="s">
         <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="2">
+      <c r="V29" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U29" s="12">
+      <c r="W29" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V29" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="12">
+      <c r="X29" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:24">
+      <c r="Y29" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="30"/>
+    </row>
+    <row r="30" spans="2:26">
       <c r="B30" t="s">
         <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="2">
+      <c r="V30" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U30" s="12">
+      <c r="W30" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V30" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="12">
+      <c r="X30" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:24">
+      <c r="Y30" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="30"/>
+    </row>
+    <row r="31" spans="2:26">
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="2">
+      <c r="V31" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U31" s="12">
+      <c r="W31" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V31" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="12">
+      <c r="X31" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:24">
+      <c r="Y31" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="30"/>
+    </row>
+    <row r="32" spans="2:26">
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="2">
+      <c r="V32" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U32" s="12">
+      <c r="W32" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V32" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="12">
+      <c r="X32" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24">
+      <c r="Y32" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="30"/>
+    </row>
+    <row r="33" spans="2:26">
       <c r="B33" t="s">
         <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="2">
+      <c r="V33" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U33" s="12">
+      <c r="W33" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V33" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="12">
+      <c r="X33" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24">
+      <c r="Y33" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="30"/>
+    </row>
+    <row r="34" spans="2:26">
       <c r="B34" t="s">
         <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="2">
+      <c r="V34" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U34" s="12">
+      <c r="W34" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V34" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="12">
+      <c r="X34" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24">
+      <c r="Y34" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="30"/>
+    </row>
+    <row r="35" spans="2:26">
       <c r="B35" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="2">
+      <c r="V35" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U35" s="12">
+      <c r="W35" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V35" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="12">
+      <c r="X35" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:24">
+      <c r="Y35" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="30"/>
+    </row>
+    <row r="36" spans="2:26">
       <c r="B36" t="s">
         <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="2">
+      <c r="V36" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U36" s="12">
+      <c r="W36" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V36" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="12">
+      <c r="X36" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24">
+      <c r="Y36" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="30"/>
+    </row>
+    <row r="37" spans="2:26">
       <c r="B37" t="s">
         <v>71</v>
       </c>
       <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="2">
+      <c r="V37" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U37" s="12">
+      <c r="W37" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V37" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="12">
+      <c r="X37" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:24">
+      <c r="Y37" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="30"/>
+    </row>
+    <row r="38" spans="2:26">
       <c r="B38" t="s">
         <v>73</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="2">
+      <c r="V38" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U38" s="12">
+      <c r="W38" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V38" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="12">
+      <c r="X38" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:24">
+      <c r="Y38" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="30"/>
+    </row>
+    <row r="39" spans="2:26">
       <c r="B39" t="s">
         <v>75</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="2">
+      <c r="V39" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U39" s="12">
+      <c r="W39" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V39" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X39" s="12">
+      <c r="X39" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:24">
+      <c r="Y39" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="30"/>
+    </row>
+    <row r="40" spans="2:26">
       <c r="B40" t="s">
         <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40" s="2">
+      <c r="V40" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U40" s="12">
+      <c r="W40" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V40" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="12">
+      <c r="X40" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:24">
+      <c r="Y40" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="30"/>
+    </row>
+    <row r="41" spans="2:26">
       <c r="B41" t="s">
         <v>79</v>
       </c>
       <c r="C41" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="2">
+      <c r="V41" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U41" s="12">
+      <c r="W41" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V41" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="12">
+      <c r="X41" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24">
+      <c r="Y41" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="30"/>
+    </row>
+    <row r="42" spans="2:26">
       <c r="B42" t="s">
         <v>81</v>
       </c>
       <c r="C42" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="2">
+      <c r="V42" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U42" s="12">
+      <c r="W42" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V42" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="12">
+      <c r="X42" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24">
+      <c r="Y42" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="30"/>
+    </row>
+    <row r="43" spans="2:26">
       <c r="B43" t="s">
         <v>83</v>
       </c>
       <c r="C43" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43" s="2">
+      <c r="V43" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U43" s="12">
+      <c r="W43" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V43" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="12">
+      <c r="X43" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24">
+      <c r="Y43" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="30"/>
+    </row>
+    <row r="44" spans="2:26">
       <c r="B44" t="s">
         <v>85</v>
       </c>
       <c r="C44" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="2">
+      <c r="V44" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U44" s="12">
+      <c r="W44" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V44" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="12">
+      <c r="X44" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24">
+      <c r="Y44" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="30"/>
+    </row>
+    <row r="45" spans="2:26">
       <c r="B45" t="s">
         <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45" s="2">
+      <c r="V45" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U45" s="12">
+      <c r="W45" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V45" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="12">
+      <c r="X45" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24">
+      <c r="Y45" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="30"/>
+    </row>
+    <row r="46" spans="2:26">
       <c r="B46" t="s">
         <v>89</v>
       </c>
       <c r="C46" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="2">
+      <c r="V46" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U46" s="12">
+      <c r="W46" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V46" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="12">
+      <c r="X46" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24">
+      <c r="Y46" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="30"/>
+    </row>
+    <row r="47" spans="2:26">
       <c r="B47" t="s">
         <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="2">
+      <c r="V47" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U47" s="12">
+      <c r="W47" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V47" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W47" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="12">
+      <c r="X47" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24">
+      <c r="Y47" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="30"/>
+    </row>
+    <row r="48" spans="2:26">
       <c r="B48" t="s">
         <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48" s="2">
+      <c r="V48" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U48" s="12">
+      <c r="W48" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V48" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="12">
+      <c r="X48" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:24">
+      <c r="Y48" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="30"/>
+    </row>
+    <row r="49" spans="2:26">
       <c r="B49" t="s">
         <v>95</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49" s="2">
+      <c r="V49" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U49" s="12">
+      <c r="W49" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V49" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="12">
+      <c r="X49" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:24">
+      <c r="Y49" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="30"/>
+    </row>
+    <row r="50" spans="2:26">
       <c r="B50" t="s">
         <v>97</v>
       </c>
       <c r="C50" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50" s="2">
+      <c r="V50" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U50" s="12">
+      <c r="W50" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V50" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W50" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X50" s="12">
+      <c r="X50" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:24">
+      <c r="Y50" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="30"/>
+    </row>
+    <row r="51" spans="2:26">
       <c r="B51" t="s">
         <v>99</v>
       </c>
       <c r="C51" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51" s="2">
+      <c r="V51" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U51" s="12">
+      <c r="W51" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V51" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W51" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X51" s="12">
+      <c r="X51" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:24">
+      <c r="Y51" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="30"/>
+    </row>
+    <row r="53" spans="2:26">
       <c r="B53" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="2:24">
+    <row r="54" spans="2:26">
       <c r="B54" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="2:24">
+    <row r="55" spans="2:26">
       <c r="B55" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:X2"/>
+  <mergeCells count="4">
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{2E79FB73-917C-6543-9278-B3E3D0F6BA7C}"/>
@@ -3575,6 +3751,9 @@
     <hyperlink ref="B14" r:id="rId12" xr:uid="{AB5123A2-7C1F-4540-B771-BFDC2AF75051}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="O13" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3598,752 +3777,752 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="15">
         <v>469</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="16">
         <v>360.05</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="15">
         <v>168863.45</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="17">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>319</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>506.83</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <v>161678.76999999999</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="17">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>53</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>2965.69</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <v>157181.57</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>2350</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>63.69</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>149671.5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="17">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>13383</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>11.15</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>149220.45000000001</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>3131</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>47.18</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>147720.57999999999</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>0.05</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>4210</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>32.74</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>137835.4</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>986</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>137.94999999999999</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>136018.70000000001</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>3109</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>43.51</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>135272.59</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>4.58E-2</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>2580</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>51.64</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>133231.20000000001</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>10000</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>13.16</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>131600</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>1700</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>72.48</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <v>123216</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <v>390</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>312.33</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <v>121808.7</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>699</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>155.9</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>108974.1</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="17">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14">
-      <c r="A16" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>396</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>268.67</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <v>106393.32</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>3270</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>31.9</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="15">
         <v>104313</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="17">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>641</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <v>149.41</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>95771.81</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="17">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <v>958</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>98.68</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>94535.44</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <v>1442</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>61.11</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="15">
         <v>88120.62</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="17">
         <v>2.98E-2</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>3204</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>27.21</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <v>87180.84</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="17">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>9508</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>9.0500000000000007</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="15">
         <v>86047.4</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="17">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <v>2505</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>31.39</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="15">
         <v>78631.95</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="17">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="15">
         <v>901</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>85.95</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="15">
         <v>77440.95</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="15">
         <v>1129</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>61.07</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="15">
         <v>68948.03</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="17">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="15">
         <v>1307</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <v>33.909999999999997</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="15">
         <v>44320.37</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="15">
         <v>4100</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>10.67</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="15">
         <v>43747</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="17">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="15">
         <v>71493.8</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>1</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="15">
         <v>71493.8</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="17">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="16" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="15">
         <v>-53172.02</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>100</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="15">
         <v>-53172.02</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="17">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="16" t="s">
         <v>189</v>
       </c>
     </row>
